--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>7.226520411029047</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>-0.08937698422409879</v>
+        <v>13.12477391005418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>4.268860212333636</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-3.872359107260159</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>0.05913090367777318</v>
+        <v>13.08276537368067</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-7.266312015249776</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>4.530477057343663</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>6.697237815907764</v>
+        <v>12.31225042954258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>6.958243460951929</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>6.833902841285977</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>6.994430785331041</v>
+        <v>12.04357532583245</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>9.469137444079934</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>4.166536506645224</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>2.440230160319024</v>
+        <v>10.6992064911972</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>3.358206407534947</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>2.669880057548091</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>4.752197893034138</v>
+        <v>4.390489499870109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.3081076735359067</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>5.50293301232252</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>6.390201317766087</v>
+        <v>3.50243535103556</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>3.901355411819707</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>4.829481320500406</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>5.7591950432899</v>
+        <v>6.143002545701282</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>5.331683351557981</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>5.100281927437122</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>5.04660052762711</v>
+        <v>4.555278923792572</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>3.254758369308375</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>5.161358932333737</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>5.583103206663687</v>
+        <v>0.9515943257393689</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>5.246209615995667</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>5.902681694119694</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>4.480130617160327</v>
+        <v>4.251116704684899</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>4.86255966374296</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>3.884502719230132</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>3.347921784741104</v>
+        <v>4.992093705734701</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>2.764740011159428</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-3.840397826549158</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>2.902399894593799</v>
+        <v>0.3611963426346065</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-7.260793671746435</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>0.4839811651348835</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>3.170284978032623</v>
+        <v>2.387971016884638</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>4.097586525396268</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>2.06342951900429</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>-4.2930451680384</v>
+        <v>3.347989317130651</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>7.824284864703746</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-2.156362896191677</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>-3.06566802596755</v>
+        <v>-2.122471977790918</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-1.24502235313334</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>-4.678511595261359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-0.8205034771073372</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-1.735114423676209</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.9807142729884033</v>
+      <c r="E19">
+        <v>1.758477003221981</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>2.387971016884638</v>
+        <v>21.21858006100776</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>3.347989317130651</v>
+        <v>0.2545830626331735</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-2.122471977790918</v>
+        <v>9.160754435237916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-4.678511595261359</v>
+        <v>-4.54008779124131</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>1.758477003221981</v>
+        <v>1.367318576177423</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>7.226520411029047</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>13.12477391005418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>4.268860212333636</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>13.08276537368067</v>
+        <v>13.08276537368063</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +448,13 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-7.266312015249776</v>
+        <v>-7.266312015249799</v>
       </c>
       <c r="D4">
         <v>2010</v>
       </c>
       <c r="E4">
-        <v>12.31225042954258</v>
+        <v>12.31225042954256</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -491,13 +482,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>9.469137444079934</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>10.6992064911972</v>
+        <v>10.69920649119718</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +499,13 @@
         <v>2012</v>
       </c>
       <c r="C7">
-        <v>3.358206407534947</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="D7">
         <v>2013</v>
       </c>
       <c r="E7">
-        <v>4.390489499870109</v>
+        <v>4.390489499870132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>3.50243535103556</v>
+        <v>3.502435351035582</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +533,13 @@
         <v>2014</v>
       </c>
       <c r="C9">
-        <v>3.901355411819707</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9">
-        <v>6.143002545701282</v>
+        <v>6.143002545701304</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>4.555278923792572</v>
+        <v>4.555278923792594</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>0.9515943257393689</v>
+        <v>0.9515943257393467</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +584,7 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>5.246209615995667</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -610,7 +601,7 @@
         <v>2018</v>
       </c>
       <c r="C13">
-        <v>4.86255966374296</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -627,13 +618,13 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>2.764740011159428</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>0.3611963426346065</v>
+        <v>0.3611963426345843</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +635,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>-7.260793671746435</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>21.21858006100776</v>
+        <v>21.21858006100774</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,7 +652,7 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>4.097586525396268</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="D16">
         <v>2022</v>
@@ -678,7 +669,7 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>7.824284864703746</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -695,7 +686,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-1.24502235313334</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="D18">
         <v>2024</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>1.367318576177423</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>2.560577522109297</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>1.325305149734723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
